--- a/data/case1/18/Qlm1_3.xlsx
+++ b/data/case1/18/Qlm1_3.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.079973021904933717</v>
+        <v>-0.10955972832100969</v>
       </c>
       <c r="B1" s="0">
-        <v>0.079603444178474092</v>
+        <v>0.10916505688611267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.057497730186764962</v>
+        <v>-0.088225278769406223</v>
       </c>
       <c r="B2" s="0">
-        <v>0.05602715614135878</v>
+        <v>0.086915849620994301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.022472895946288318</v>
+        <v>-0.037200998095794802</v>
       </c>
       <c r="B3" s="0">
-        <v>0.022161949350156362</v>
+        <v>0.036844836257838409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.014161949375472105</v>
+        <v>-0.028844836334137369</v>
       </c>
       <c r="B4" s="0">
-        <v>0.013887840610234292</v>
+        <v>0.028529223039214457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.01088784062118453</v>
+        <v>-0.025529223074140184</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0099704411546710503</v>
+        <v>0.024466481168246013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.023408478657357179</v>
+        <v>-0.0060342143235647683</v>
       </c>
       <c r="B6" s="0">
-        <v>0.023363754374111423</v>
+        <v>0.0059369259925965423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.013363754405915085</v>
+        <v>0.0040630739124689619</v>
       </c>
       <c r="B7" s="0">
-        <v>0.013360961281273731</v>
+        <v>-0.0040754381718173249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.003360961313505495</v>
+        <v>0.014075438077646218</v>
       </c>
       <c r="B8" s="0">
-        <v>0.003347026510363893</v>
+        <v>-0.014088347424723757</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0013470265193640252</v>
+        <v>0.016088347401566061</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0013220392661064118</v>
+        <v>-0.016101071209629225</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.00067796072486991932</v>
+        <v>0.018101071189761342</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.00068066206060102274</v>
+        <v>-0.018100833733431188</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0036806620486755648</v>
+        <v>0.021100833705235189</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0036893439265410777</v>
+        <v>-0.021104004929320297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.007189343913198698</v>
+        <v>0.024604004897704979</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0073098125769348599</v>
+        <v>-0.024665763920093564</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.010809812564121835</v>
+        <v>0.0055942300412343826</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.010910512988367316</v>
+        <v>-0.0057562681654657055</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.01891051296270696</v>
+        <v>0.013756268103388258</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.01903495844005576</v>
+        <v>-0.013837053537301358</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.020034958435337202</v>
+        <v>0.014837053536194134</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.020190920467902274</v>
+        <v>-0.014903261835722326</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.02219092046093829</v>
+        <v>-0.0060334742906524852</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.022781832650475842</v>
+        <v>0.0060031928197750162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.024781832644860557</v>
+        <v>-0.0040031928282102669</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.025013899916813465</v>
+        <v>0.003999999974310775</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016105714009540861</v>
+        <v>-0.014939778168638895</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091928674757838</v>
+        <v>0.014896286081139465</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091928686829956</v>
+        <v>-0.012091192285973662</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012017029499804099</v>
+        <v>0.012016207153954017</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080170295127253155</v>
+        <v>-0.0080162071918756794</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056941975286122</v>
+        <v>0.0080056336267855244</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056942106145854</v>
+        <v>-0.004005633665157049</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999868225444</v>
+        <v>0.0039999999612696513</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045716567699320976</v>
+        <v>-0.045714851566132531</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045501723542711758</v>
+        <v>0.04550096933464598</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040501723559910552</v>
+        <v>-0.040500969386868313</v>
       </c>
       <c r="B23" s="0">
-        <v>0.04009962594870764</v>
+        <v>0.040099313992102203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.02009962601131754</v>
+        <v>-0.020099314177199012</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999936531232</v>
+        <v>0.019999999812169378</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.015438037494346801</v>
+        <v>-0.016432266872422829</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.015521827303301095</v>
+        <v>0.016372556826244278</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.038881822477161876</v>
+        <v>-0.01387255685847677</v>
       </c>
       <c r="B26" s="0">
-        <v>0.038792673963504498</v>
+        <v>0.013798193821294547</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.036292673973671974</v>
+        <v>-0.011298193853911176</v>
       </c>
       <c r="B27" s="0">
-        <v>0.03578813141561632</v>
+        <v>0.010872394386002071</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.03378813142624093</v>
+        <v>-0.0088723944157598211</v>
       </c>
       <c r="B28" s="0">
-        <v>0.033461102450748292</v>
+        <v>0.0085996526416050045</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.026461102477262521</v>
+        <v>-0.0015996527143977701</v>
       </c>
       <c r="B29" s="0">
-        <v>0.026377651837938387</v>
+        <v>0.0015304042510555504</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.033622347980235112</v>
+        <v>0.058469595225975279</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.033821847719366804</v>
+        <v>-0.058816755775485063</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.04082184769400321</v>
+        <v>0.065816755713235864</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.040882492928066227</v>
+        <v>-0.065940756056054539</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.05088249289462965</v>
+        <v>-0.0040010017351157501</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.050978288251409154</v>
+        <v>0.0039999999665134567</v>
       </c>
     </row>
   </sheetData>
